--- a/Documentary/Meilensteintrendanalyse_Verga.xlsx
+++ b/Documentary/Meilensteintrendanalyse_Verga.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1233D25-A100-4EB9-8468-A82446DB7B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60E4071-CFE9-4693-9F41-24898FAD40D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Report-Termine</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Ende</t>
+  </si>
+  <si>
+    <t>Leon</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -236,6 +239,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1179,7 +1183,7 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1221,6 +1225,33 @@
                   <c:v>45373</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>45373</c:v>
                 </c:pt>
               </c:numCache>
@@ -1326,7 +1357,7 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,6 +1399,33 @@
                   <c:v>45350</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>45350</c:v>
                 </c:pt>
               </c:numCache>
@@ -1473,7 +1531,7 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,13 +1567,40 @@
                   <c:v>45406</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>45406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45406</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>45413</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>45420</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>45420</c:v>
+                <c:pt idx="13">
+                  <c:v>45428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,7 +1705,7 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1662,6 +1747,33 @@
                   <c:v>45359</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>45359</c:v>
                 </c:pt>
               </c:numCache>
@@ -1767,7 +1879,7 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1810,6 +1922,33 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,7 +2053,7 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,19 +2083,46 @@
                   <c:v>45436</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45436</c:v>
+                  <c:v>45444</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45436</c:v>
+                  <c:v>45444</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45436</c:v>
+                  <c:v>45453</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45436</c:v>
+                  <c:v>45453</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45436</c:v>
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,7 +2146,7 @@
                   <c:v>Ende</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.06.2024</c:v>
+                  <c:v>14.06.2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2063,7 +2229,7 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2075,37 +2241,64 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45462</c:v>
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3612,8 +3805,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="B1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3636,7 +3829,7 @@
         <v>45336</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:W2" si="0">E2+7</f>
+        <f t="shared" ref="F2:V2" si="0">E2+7</f>
         <v>45343</v>
       </c>
       <c r="G2" s="2">
@@ -3704,8 +3897,7 @@
         <v>45455</v>
       </c>
       <c r="W2" s="2">
-        <f t="shared" si="0"/>
-        <v>45462</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
@@ -3756,6 +3948,33 @@
       <c r="N4" s="13">
         <v>45373</v>
       </c>
+      <c r="O4" s="13">
+        <v>45373</v>
+      </c>
+      <c r="P4" s="13">
+        <v>45373</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>45373</v>
+      </c>
+      <c r="R4" s="13">
+        <v>45373</v>
+      </c>
+      <c r="S4" s="13">
+        <v>45373</v>
+      </c>
+      <c r="T4" s="13">
+        <v>45373</v>
+      </c>
+      <c r="U4" s="13">
+        <v>45373</v>
+      </c>
+      <c r="V4" s="13">
+        <v>45373</v>
+      </c>
+      <c r="W4" s="13">
+        <v>45373</v>
+      </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
@@ -3797,6 +4016,33 @@
       <c r="N5" s="13">
         <v>45350</v>
       </c>
+      <c r="O5" s="13">
+        <v>45357</v>
+      </c>
+      <c r="P5" s="13">
+        <v>45357</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>45357</v>
+      </c>
+      <c r="R5" s="13">
+        <v>45350</v>
+      </c>
+      <c r="S5" s="13">
+        <v>45350</v>
+      </c>
+      <c r="T5" s="13">
+        <v>45350</v>
+      </c>
+      <c r="U5" s="13">
+        <v>45350</v>
+      </c>
+      <c r="V5" s="13">
+        <v>45350</v>
+      </c>
+      <c r="W5" s="13">
+        <v>45350</v>
+      </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
@@ -3830,17 +4076,41 @@
         <v>45406</v>
       </c>
       <c r="L6" s="13">
+        <v>45406</v>
+      </c>
+      <c r="M6" s="13">
+        <v>45406</v>
+      </c>
+      <c r="N6" s="13">
+        <v>45406</v>
+      </c>
+      <c r="O6" s="13">
         <v>45413</v>
       </c>
-      <c r="M6" s="13">
+      <c r="P6" s="13">
         <v>45420</v>
       </c>
-      <c r="N6" s="13">
-        <v>45420</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="13">
+        <v>45428</v>
+      </c>
+      <c r="R6" s="13">
+        <v>45436</v>
+      </c>
+      <c r="S6" s="13">
+        <v>45444</v>
+      </c>
+      <c r="T6" s="13">
+        <v>45450</v>
+      </c>
+      <c r="U6" s="13">
+        <v>45453</v>
+      </c>
+      <c r="V6" s="13">
+        <v>45453</v>
+      </c>
+      <c r="W6" s="13">
+        <v>45453</v>
+      </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
@@ -3882,6 +4152,33 @@
       <c r="N7" s="13">
         <v>45359</v>
       </c>
+      <c r="O7" s="13">
+        <v>45364</v>
+      </c>
+      <c r="P7" s="13">
+        <v>45364</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>45364</v>
+      </c>
+      <c r="R7" s="13">
+        <v>45364</v>
+      </c>
+      <c r="S7" s="13">
+        <v>45359</v>
+      </c>
+      <c r="T7" s="13">
+        <v>45359</v>
+      </c>
+      <c r="U7" s="13">
+        <v>45359</v>
+      </c>
+      <c r="V7" s="13">
+        <v>45359</v>
+      </c>
+      <c r="W7" s="13">
+        <v>45359</v>
+      </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
@@ -3923,6 +4220,33 @@
       <c r="N8" s="13">
         <v>45436</v>
       </c>
+      <c r="O8" s="13">
+        <v>45436</v>
+      </c>
+      <c r="P8" s="13">
+        <v>45436</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>45436</v>
+      </c>
+      <c r="R8" s="16">
+        <v>45436</v>
+      </c>
+      <c r="S8" s="16">
+        <v>45444</v>
+      </c>
+      <c r="T8" s="16">
+        <v>45450</v>
+      </c>
+      <c r="U8" s="16">
+        <v>45453</v>
+      </c>
+      <c r="V8" s="16">
+        <v>45453</v>
+      </c>
+      <c r="W8" s="16">
+        <v>45453</v>
+      </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
@@ -3950,19 +4274,46 @@
         <v>45436</v>
       </c>
       <c r="J9" s="13">
-        <v>45436</v>
+        <v>45444</v>
       </c>
       <c r="K9" s="13">
-        <v>45436</v>
+        <v>45444</v>
       </c>
       <c r="L9" s="13">
-        <v>45436</v>
+        <v>45453</v>
       </c>
       <c r="M9" s="13">
-        <v>45436</v>
+        <v>45453</v>
       </c>
       <c r="N9" s="13">
-        <v>45436</v>
+        <v>45453</v>
+      </c>
+      <c r="O9" s="13">
+        <v>45453</v>
+      </c>
+      <c r="P9" s="13">
+        <v>45453</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>45453</v>
+      </c>
+      <c r="R9" s="13">
+        <v>45453</v>
+      </c>
+      <c r="S9" s="13">
+        <v>45453</v>
+      </c>
+      <c r="T9" s="13">
+        <v>45453</v>
+      </c>
+      <c r="U9" s="13">
+        <v>45453</v>
+      </c>
+      <c r="V9" s="13">
+        <v>45453</v>
+      </c>
+      <c r="W9" s="13">
+        <v>45453</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
@@ -3970,40 +4321,67 @@
         <v>13</v>
       </c>
       <c r="C10" s="14">
-        <v>45462</v>
+        <v>45457</v>
       </c>
       <c r="D10" s="14">
-        <v>45462</v>
+        <v>45457</v>
       </c>
       <c r="E10" s="14">
-        <v>45462</v>
+        <v>45457</v>
       </c>
       <c r="F10" s="14">
-        <v>45462</v>
+        <v>45457</v>
       </c>
       <c r="G10" s="14">
-        <v>45462</v>
+        <v>45457</v>
       </c>
       <c r="H10" s="14">
-        <v>45462</v>
+        <v>45457</v>
       </c>
       <c r="I10" s="14">
-        <v>45462</v>
+        <v>45457</v>
       </c>
       <c r="J10" s="14">
-        <v>45462</v>
+        <v>45457</v>
       </c>
       <c r="K10" s="14">
-        <v>45462</v>
+        <v>45457</v>
       </c>
       <c r="L10" s="14">
-        <v>45462</v>
+        <v>45457</v>
       </c>
       <c r="M10" s="14">
-        <v>45462</v>
+        <v>45457</v>
       </c>
       <c r="N10" s="14">
-        <v>45462</v>
+        <v>45457</v>
+      </c>
+      <c r="O10" s="14">
+        <v>45457</v>
+      </c>
+      <c r="P10" s="14">
+        <v>45457</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>45457</v>
+      </c>
+      <c r="R10" s="14">
+        <v>45457</v>
+      </c>
+      <c r="S10" s="14">
+        <v>45457</v>
+      </c>
+      <c r="T10" s="14">
+        <v>45457</v>
+      </c>
+      <c r="U10" s="14">
+        <v>45457</v>
+      </c>
+      <c r="V10" s="14">
+        <v>45457</v>
+      </c>
+      <c r="W10" s="14">
+        <v>45457</v>
       </c>
     </row>
   </sheetData>
@@ -4017,24 +4395,23 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001A56A123154F954888BA0DA91FFC860A" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6b0f0b887473c06d57ab47eb162c5adb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8b2f909-83aa-43b7-ab4a-271920d90ab4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5943a525a29c358ca6f511ad1b1ad182" ns2:_="">
     <xsd:import namespace="c8b2f909-83aa-43b7-ab4a-271920d90ab4"/>
@@ -4178,21 +4555,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7148709D-0DB5-49EA-8EF5-E7B257E5A790}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4210,11 +4588,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>